--- a/reports/Borrow.xlsx
+++ b/reports/Borrow.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>Borrow ID</t>
   </si>
@@ -32,31 +32,19 @@
     <t>1</t>
   </si>
   <si>
+    <t>2025-12-10</t>
+  </si>
+  <si>
     <t>2025-12-11</t>
   </si>
   <si>
-    <t>2025-12-10</t>
-  </si>
-  <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>2025-12-12</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
   </si>
 </sst>
 </file>
@@ -107,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -145,10 +133,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>5</v>
@@ -159,13 +147,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>9</v>
-      </c>
       <c r="D3" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>5</v>
@@ -173,16 +161,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="D4" t="s" s="0">
         <v>6</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>7</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>5</v>
@@ -190,70 +178,17 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>7</v>
-      </c>
+      <c r="D5" s="0"/>
       <c r="E5" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
